--- a/InterviewTest/output/230245/230245_failed.xlsx
+++ b/InterviewTest/output/230245/230245_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230245\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB0D5DD-3E36-47E5-B132-7BB315A888A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E19AD1-5F6C-4C5C-9ADE-64B53DB62727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  HOA_CH: 11.55</t>
+    <t>Example:  HOA_CH: 18.55</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230245/230245_failed.xlsx
+++ b/InterviewTest/output/230245/230245_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230245\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230245\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E19AD1-5F6C-4C5C-9ADE-64B53DB62727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DECDD3C-4573-44A1-B890-7746F111AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="32700" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230245/230245_failed.xlsx
+++ b/InterviewTest/output/230245/230245_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230245\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230245\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DECDD3C-4573-44A1-B890-7746F111AF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0073E524-6595-42A5-B4C6-32FA9F1F35C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
